--- a/output/experiments/thesis_daily_profile/6h-bat-Oct-GT&Heuristic.xlsx
+++ b/output/experiments/thesis_daily_profile/6h-bat-Oct-GT&Heuristic.xlsx
@@ -202,10 +202,10 @@
     <t>unconscious</t>
   </si>
   <si>
-    <t>10-01</t>
-  </si>
-  <si>
-    <t>10-07</t>
+    <t>05-01</t>
+  </si>
+  <si>
+    <t>05-07</t>
   </si>
   <si>
     <t>flex</t>
@@ -214,16 +214,16 @@
     <t>by_execution</t>
   </si>
   <si>
-    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-10-01-10-07-Sum-ALL-Sum-by_execution-2023-09-08_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-10-01-10-07-Sum-ALL-Sum-by_execution-2023-09-08_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.0-0.6-flex-438-unconscious-10-01-10-07-Sum-ALL-Sum-by_execution-2023-09-08_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.0-0.6-flex-438-unconscious-10-01-10-07-Sum-ALL-Sum-by_execution-2023-09-08_001.xlsx</t>
+    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-05-01-05-07-Sum-ALL-Sum-by_execution-2023-09-10_002.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-05-01-05-07-Sum-ALL-Sum-by_execution-2023-09-10_002.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.0-0.6-flex-438-unconscious-05-01-05-07-Sum-ALL-Sum-by_execution-2023-09-10_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.0-0.6-flex-438-unconscious-05-01-05-07-Sum-ALL-Sum-by_execution-2023-09-10_001.xlsx</t>
   </si>
 </sst>
 </file>
@@ -810,22 +810,22 @@
         <v>65</v>
       </c>
       <c r="T2">
-        <v>296.7140589577468</v>
+        <v>285.8545859006954</v>
       </c>
       <c r="U2">
         <v>5.989583333333333</v>
       </c>
       <c r="V2">
-        <v>272.8871126</v>
+        <v>237.2558085</v>
       </c>
       <c r="W2" t="s">
         <v>66</v>
       </c>
       <c r="X2">
-        <v>296.7140589577468</v>
+        <v>285.8545859006954</v>
       </c>
       <c r="Y2">
-        <v>278.7140589577468</v>
+        <v>267.8545859006954</v>
       </c>
       <c r="Z2">
         <v>18</v>
@@ -837,7 +837,7 @@
         <v>438</v>
       </c>
       <c r="AC2">
-        <v>5.897072393083541</v>
+        <v>5.678954554096853</v>
       </c>
       <c r="AD2">
         <v>0</v>
@@ -846,55 +846,55 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.1178586473286854</v>
+        <v>0.114672439494512</v>
       </c>
       <c r="AG2">
-        <v>0.1178586473286854</v>
+        <v>0.114672439494512</v>
       </c>
       <c r="AH2">
-        <v>0.1107088154017175</v>
+        <v>0.1074516215936991</v>
       </c>
       <c r="AJ2">
-        <v>76.46198701573768</v>
+        <v>79.18930353982829</v>
       </c>
       <c r="AK2">
-        <v>204.1040507316956</v>
+        <v>190.2218235992362</v>
       </c>
       <c r="AM2">
-        <v>88.15304347826087</v>
+        <v>75.96521739130435</v>
       </c>
       <c r="AN2">
-        <v>1782.579439304347</v>
+        <v>1851.044923826084</v>
       </c>
       <c r="AO2">
-        <v>734.9622573203196</v>
+        <v>641.7474782608699</v>
       </c>
       <c r="AP2">
-        <v>2517.541696624666</v>
+        <v>2492.792402086953</v>
       </c>
       <c r="AQ2">
-        <v>1093.376893253608</v>
+        <v>1145.37302037751</v>
       </c>
       <c r="AR2">
-        <v>1457.94575637697</v>
+        <v>1392.387640017712</v>
       </c>
       <c r="AS2">
-        <v>8.267010264756644E-15</v>
+        <v>12.61944785462037</v>
       </c>
       <c r="AT2">
-        <v>204.1040507316956</v>
+        <v>192.4213002026135</v>
       </c>
       <c r="AU2">
-        <v>1.072694628775302E-15</v>
+        <v>2.199476603377332</v>
       </c>
       <c r="AV2">
-        <v>127.4366450262295</v>
+        <v>131.9821725663805</v>
       </c>
       <c r="AW2">
-        <v>65.41510341243729</v>
+        <v>54.97973661505287</v>
       </c>
       <c r="AX2">
-        <v>1.851978789686568</v>
+        <v>1.556541238369009</v>
       </c>
       <c r="AY2">
         <v>0</v>
@@ -968,22 +968,22 @@
         <v>65</v>
       </c>
       <c r="T3">
-        <v>320.0370216467352</v>
+        <v>356.3413021008176</v>
       </c>
       <c r="U3">
         <v>5.989583333333333</v>
       </c>
       <c r="V3">
-        <v>257.8189825</v>
+        <v>232.7462656</v>
       </c>
       <c r="W3" t="s">
         <v>67</v>
       </c>
       <c r="X3">
-        <v>320.0370216467352</v>
+        <v>356.3413021008176</v>
       </c>
       <c r="Y3">
-        <v>302.0370216467352</v>
+        <v>338.3413021008176</v>
       </c>
       <c r="Z3">
         <v>18</v>
@@ -995,7 +995,7 @@
         <v>438</v>
       </c>
       <c r="AC3">
-        <v>5.897072393083541</v>
+        <v>5.678954554096853</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -1004,49 +1004,49 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.1271860883885311</v>
+        <v>0.1429360947156512</v>
       </c>
       <c r="AG3">
-        <v>0.1271860883885311</v>
+        <v>0.1429360947156512</v>
       </c>
       <c r="AH3">
-        <v>0.1200326985112794</v>
+        <v>0.1357159108926887</v>
       </c>
       <c r="AJ3">
-        <v>105.6786066969587</v>
+        <v>145.462160950762</v>
       </c>
       <c r="AK3">
-        <v>196.3584149497765</v>
+        <v>192.8791411500556</v>
       </c>
       <c r="AM3">
-        <v>88.15304347826087</v>
+        <v>75.96521739130435</v>
       </c>
       <c r="AN3">
-        <v>1782.579439304347</v>
+        <v>1851.044923826084</v>
       </c>
       <c r="AO3">
-        <v>733.7100834072759</v>
+        <v>641.9663957409052</v>
       </c>
       <c r="AP3">
-        <v>2516.289522711622</v>
+        <v>2493.011319566989</v>
       </c>
       <c r="AQ3">
-        <v>1093.376893253608</v>
+        <v>1145.37302037751</v>
       </c>
       <c r="AR3">
-        <v>1451.27066185341</v>
+        <v>1439.685790501585</v>
       </c>
       <c r="AS3">
-        <v>3.892024727583188</v>
+        <v>69.05931044126362</v>
       </c>
       <c r="AT3">
-        <v>196.9389844605078</v>
+        <v>201.5715520063987</v>
       </c>
       <c r="AU3">
-        <v>0.5805695107313026</v>
+        <v>8.692410856343134</v>
       </c>
       <c r="AV3">
-        <v>176.1310111615978</v>
+        <v>242.4369349179368</v>
       </c>
       <c r="AW3">
         <v>0</v>
@@ -1055,16 +1055,16 @@
         <v>0</v>
       </c>
       <c r="AY3">
-        <v>-9.394994011513326</v>
+        <v>-8.039657662473516</v>
       </c>
       <c r="AZ3">
-        <v>10.88004355860312</v>
+        <v>8.156605233437858</v>
       </c>
       <c r="BA3">
-        <v>0</v>
+        <v>-69.89789491795162</v>
       </c>
       <c r="BB3">
-        <v>0</v>
+        <v>78.56423866152196</v>
       </c>
     </row>
     <row r="4" spans="1:54">
@@ -1126,22 +1126,22 @@
         <v>65</v>
       </c>
       <c r="T4">
-        <v>211.9601882030956</v>
+        <v>199.4235479145162</v>
       </c>
       <c r="U4">
         <v>5.989583333333333</v>
       </c>
       <c r="V4">
-        <v>272.9010595</v>
+        <v>237.943993</v>
       </c>
       <c r="W4" t="s">
         <v>68</v>
       </c>
       <c r="X4">
-        <v>211.9601882030956</v>
+        <v>199.4235479145162</v>
       </c>
       <c r="Y4">
-        <v>193.9601882030956</v>
+        <v>181.4235479145162</v>
       </c>
       <c r="Z4">
         <v>18</v>
@@ -1153,7 +1153,7 @@
         <v>438</v>
       </c>
       <c r="AC4">
-        <v>5.897072393083541</v>
+        <v>5.678954554096853</v>
       </c>
       <c r="AD4">
         <v>0</v>
@@ -1162,49 +1162,49 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.0842352147040224</v>
+        <v>0.08000643251727575</v>
       </c>
       <c r="AG4">
-        <v>0.0842352147040224</v>
+        <v>0.08000643251727575</v>
       </c>
       <c r="AH4">
-        <v>0.07708182482677063</v>
+        <v>0.07278503965584558</v>
       </c>
       <c r="AJ4">
         <v>0</v>
       </c>
       <c r="AK4">
-        <v>193.9601882030956</v>
+        <v>181.4235479145162</v>
       </c>
       <c r="AM4">
-        <v>88.15304347826087</v>
+        <v>75.96521739130435</v>
       </c>
       <c r="AN4">
-        <v>1782.579439304347</v>
+        <v>1851.044923826084</v>
       </c>
       <c r="AO4">
-        <v>733.7100834072761</v>
+        <v>641.5490044365571</v>
       </c>
       <c r="AP4">
-        <v>2516.289522711623</v>
+        <v>2492.59392826264</v>
       </c>
       <c r="AQ4">
-        <v>1093.376893253608</v>
+        <v>1145.37302037751</v>
       </c>
       <c r="AR4">
-        <v>1449.547941100921</v>
+        <v>1386.035103980676</v>
       </c>
       <c r="AS4">
-        <v>6.302205134567845E-15</v>
+        <v>12.61944785462037</v>
       </c>
       <c r="AT4">
-        <v>193.9601882030956</v>
+        <v>183.6230245178935</v>
       </c>
       <c r="AU4">
-        <v>6.603079822051096E-16</v>
+        <v>2.199476603377333</v>
       </c>
       <c r="AV4">
-        <v>168.8874000000001</v>
+        <v>168.8874</v>
       </c>
       <c r="AW4">
         <v>0</v>
@@ -1284,22 +1284,22 @@
         <v>65</v>
       </c>
       <c r="T5">
-        <v>213.0994198245562</v>
+        <v>209.8805546835145</v>
       </c>
       <c r="U5">
         <v>5.989583333333333</v>
       </c>
       <c r="V5">
-        <v>273.4965627</v>
+        <v>234.0756626</v>
       </c>
       <c r="W5" t="s">
         <v>69</v>
       </c>
       <c r="X5">
-        <v>213.0994198245562</v>
+        <v>209.8805546835145</v>
       </c>
       <c r="Y5">
-        <v>195.0994198245562</v>
+        <v>191.8805546835145</v>
       </c>
       <c r="Z5">
         <v>18</v>
@@ -1311,7 +1311,7 @@
         <v>438</v>
       </c>
       <c r="AC5">
-        <v>5.897072393083541</v>
+        <v>5.678954554096853</v>
       </c>
       <c r="AD5">
         <v>0</v>
@@ -1320,49 +1320,49 @@
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.08468795736784472</v>
+        <v>0.08418756587112836</v>
       </c>
       <c r="AG5">
-        <v>0.08468795736784472</v>
+        <v>0.08418756587112836</v>
       </c>
       <c r="AH5">
-        <v>0.07753456749059295</v>
+        <v>0.07696738204816583</v>
       </c>
       <c r="AJ5">
         <v>0</v>
       </c>
       <c r="AK5">
-        <v>195.0994198245562</v>
+        <v>191.8805546835145</v>
       </c>
       <c r="AM5">
-        <v>88.15304347826087</v>
+        <v>75.96521739130435</v>
       </c>
       <c r="AN5">
-        <v>1782.579439304347</v>
+        <v>1851.044923826084</v>
       </c>
       <c r="AO5">
-        <v>733.7100834072758</v>
+        <v>641.9663957409052</v>
       </c>
       <c r="AP5">
-        <v>2516.289522711622</v>
+        <v>2493.011319566989</v>
       </c>
       <c r="AQ5">
-        <v>1093.376893253608</v>
+        <v>1145.37302037751</v>
       </c>
       <c r="AR5">
-        <v>1453.270538917799</v>
+        <v>1446.16424383558</v>
       </c>
       <c r="AS5">
-        <v>3.777251666148734</v>
+        <v>72.21237129635293</v>
       </c>
       <c r="AT5">
-        <v>195.6676272827887</v>
+        <v>200.9013613962217</v>
       </c>
       <c r="AU5">
-        <v>0.5682074582324447</v>
+        <v>9.020806712707234</v>
       </c>
       <c r="AV5">
-        <v>178.9106998736576</v>
+        <v>248.2008211038599</v>
       </c>
       <c r="AW5">
         <v>0</v>
@@ -1371,16 +1371,16 @@
         <v>0</v>
       </c>
       <c r="AY5">
-        <v>-9.394994011513326</v>
+        <v>-8.039657662473516</v>
       </c>
       <c r="AZ5">
-        <v>10.88004355860312</v>
+        <v>8.156605233437858</v>
       </c>
       <c r="BA5">
-        <v>0</v>
+        <v>-69.89789491795162</v>
       </c>
       <c r="BB5">
-        <v>0</v>
+        <v>78.56423866152196</v>
       </c>
     </row>
   </sheetData>
